--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Tarek Abdalla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1162125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايكل توفيق حنا سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1220140</x:t>
@@ -632,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -932,7 +941,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1983,7 +1992,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.7090618866</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2143,7 +2152,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.7090618866</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2175,7 +2184,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2207,7 +2216,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2239,7 +2248,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2271,7 +2280,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2303,7 +2312,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2335,7 +2344,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2367,7 +2376,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2399,7 +2408,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2495,7 +2504,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2527,7 +2536,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2559,7 +2568,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2591,7 +2600,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2623,7 +2632,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2655,7 +2664,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2687,7 +2696,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2719,7 +2728,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2736,6 +2745,38 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Tarek Abdalla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجينا شوقي أحمد شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujina Shawki Ahmed Shehata</x:t>
   </x:si>
   <x:si>
     <x:t>1162125</x:t>
@@ -641,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -941,7 +950,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T56"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1992,7 +2001,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45923.4748199421</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2024,7 +2033,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2056,7 +2065,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2088,7 +2097,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2120,7 +2129,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2152,7 +2161,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.7090618866</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2184,7 +2193,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.7090618866</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2216,7 +2225,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2248,7 +2257,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2280,7 +2289,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2312,7 +2321,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2344,7 +2353,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2376,7 +2385,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2408,7 +2417,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2440,7 +2449,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2472,7 +2481,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2504,7 +2513,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2536,7 +2545,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2568,7 +2577,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2600,7 +2609,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2632,7 +2641,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2664,7 +2673,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2696,7 +2705,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2728,7 +2737,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2760,7 +2769,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2777,6 +2786,38 @@
       <x:c r="R56" s="2" t="s"/>
       <x:c r="S56" s="2" t="s"/>
       <x:c r="T56" s="2" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:20">
+      <x:c r="A57" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E57" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="2" t="s"/>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -213,15 +213,6 @@
     <x:t>AlaaEldin Hamed Mohamed Mahmoud Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي علاء عبدالعزيز نيازي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220130</x:t>
   </x:si>
   <x:si>
@@ -427,15 +418,6 @@
   </x:si>
   <x:si>
     <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1190535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نهى وائل ابراهيم ابراهيم الكردى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noha Wael Ibrahim Ibrahim Elkordy</x:t>
   </x:si>
   <x:si>
     <x:t>4220145</x:t>
@@ -650,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -950,7 +932,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1681,7 +1663,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3249193287</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1713,7 +1695,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45912.3245987269</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1745,7 +1727,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3245987269</x:v>
+        <x:v>45906.6644042014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1777,7 +1759,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644042014</x:v>
+        <x:v>45906.4155314005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1809,7 +1791,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4155314005</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1841,7 +1823,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1873,7 +1855,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45906.6074306713</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1905,7 +1887,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6074306713</x:v>
+        <x:v>45906.4386726505</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1937,7 +1919,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4386726505</x:v>
+        <x:v>45909.4150289699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1969,7 +1951,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4150289699</x:v>
+        <x:v>45923.4748199421</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2001,7 +1983,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.4748199421</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2033,7 +2015,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2065,7 +2047,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2097,7 +2079,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2129,7 +2111,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2161,7 +2143,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.7090618866</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2193,7 +2175,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.7090618866</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2225,7 +2207,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2257,7 +2239,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2289,7 +2271,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2321,7 +2303,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2353,7 +2335,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2385,7 +2367,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2417,7 +2399,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2449,7 +2431,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2481,7 +2463,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2513,7 +2495,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2545,7 +2527,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2577,7 +2559,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2609,7 +2591,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2641,7 +2623,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2673,7 +2655,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2705,7 +2687,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2737,7 +2719,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2754,70 +2736,6 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45912.3246596065</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:20">
-      <x:c r="A57" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E57" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F57" s="2" t="s"/>
-      <x:c r="G57" s="2" t="s"/>
-      <x:c r="H57" s="2" t="s"/>
-      <x:c r="I57" s="2" t="s"/>
-      <x:c r="J57" s="2" t="s"/>
-      <x:c r="K57" s="2" t="s"/>
-      <x:c r="L57" s="2" t="s"/>
-      <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="2" t="s"/>
-      <x:c r="O57" s="2" t="s"/>
-      <x:c r="P57" s="2" t="s"/>
-      <x:c r="Q57" s="2" t="s"/>
-      <x:c r="R57" s="2" t="s"/>
-      <x:c r="S57" s="2" t="s"/>
-      <x:c r="T57" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Lujina Shawki Ahmed Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن محمد سيد خليفه احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1162125</x:t>
@@ -632,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -932,7 +941,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1983,7 +1992,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45927.6911740741</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2143,7 +2152,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.7090618866</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2175,7 +2184,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.7090618866</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2207,7 +2216,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2239,7 +2248,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2271,7 +2280,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2303,7 +2312,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2335,7 +2344,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2367,7 +2376,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2399,7 +2408,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2495,7 +2504,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2527,7 +2536,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2559,7 +2568,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2591,7 +2600,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2623,7 +2632,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2655,7 +2664,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2687,7 +2696,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2719,7 +2728,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2736,6 +2745,38 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45906.6647616898</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Lujina Shawki Ahmed Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن محمد سيد خليفه احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1162125</x:t>
@@ -641,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -941,7 +932,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T56"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1992,7 +1983,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.6911740741</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2024,7 +2015,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2056,7 +2047,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2088,7 +2079,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2120,7 +2111,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2152,7 +2143,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45909.7090618866</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2184,7 +2175,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.7090618866</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2216,7 +2207,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2248,7 +2239,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45909.4150387731</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2280,7 +2271,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4150387731</x:v>
+        <x:v>45909.4161026273</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2312,7 +2303,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4161026273</x:v>
+        <x:v>45909.4150586806</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2344,7 +2335,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4150586806</x:v>
+        <x:v>45909.4148682523</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2376,7 +2367,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4148682523</x:v>
+        <x:v>45906.4144648148</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2408,7 +2399,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45909.4174972569</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2440,7 +2431,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4174972569</x:v>
+        <x:v>45909.4151548958</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2472,7 +2463,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4151548958</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2504,7 +2495,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2536,7 +2527,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4148844907</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2568,7 +2559,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45909.4148844907</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2600,7 +2591,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45909.4154013542</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2632,7 +2623,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45909.4154013542</x:v>
+        <x:v>45912.3248138079</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2664,7 +2655,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3248138079</x:v>
+        <x:v>45909.4154523958</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2696,7 +2687,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.4154523958</x:v>
+        <x:v>45912.3246596065</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2728,7 +2719,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3246596065</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2745,38 +2736,6 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45906.6647616898</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -327,7 +327,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230167</x:t>
@@ -435,7 +435,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>

--- a/downloaded_files/CMPS402_Lecture-35540.xlsx
+++ b/downloaded_files/CMPS402_Lecture-35540.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210346</x:t>
@@ -288,10 +288,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -336,7 +336,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1220142</x:t>
@@ -940,7 +940,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
